--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8956863661.557245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004129641046056736</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.01503645019189255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.602908096319107</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.4930794280729567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-4.602908096319107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5867381119.67151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005379228347816557</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.175406012549368</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9393446580289758</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.175406012549368</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6462977920.097515</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003213055661326433</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.158234539583263</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9515791491960378</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.158234539583263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3809099537.876777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003492585291605102</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.85215427176536</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7729790195909888</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.85215427176536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6747739406.986707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002049255229371355</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.442413909025285</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.178712444165284</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.442413909025285</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6698564295.391161</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001211388532649259</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.037692334678067</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6744328077.61253</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002223143520910765</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.109653232761072</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9404634613201182</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.109653232761072</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4515289545.225926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005236397902758104</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.147535934580654</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9440631295424882</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.147535934580654</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3099834515.659041</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004142887000070945</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.171968888571054</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9680133830915314</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.171968888571054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4424373182.509093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001297863843500102</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.225418246022192</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7719246680658746</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-4.225418246022192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5891973797.538106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001603406866134586</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.293331651108714</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9926842532190782</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.293331651108714</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4691633006.479028</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004325407183095029</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.24864458471674</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.018590276020641</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.24864458471674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5942811552.108464</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003563246251259875</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9353931677550094</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.270355840548674</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.235949745136653</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-7.270355840548674</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7703362255.265001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005632160682698572</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.08910450491810683</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.540090290714359</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.3000835974764326</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-7.540090290714359</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8197084121.280508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003431608476808332</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9464310336826184</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.349292277778761</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.191789923005423</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.349292277778761</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5666110432.290013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002626677989185726</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.120295338601053</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9415809352301379</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.120295338601053</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6944921111.793509</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001128327355328205</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.231675431576475</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9769080089142839</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.231675431576475</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2866299599.650349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.0018070738514256</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.20717397396965</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9348560555106857</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-5.20717397396965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4782454052.891217</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001110768528703153</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.138255070322323</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8197895068267189</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.138255070322323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6366730587.291769</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003682960934331306</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9119448079378659</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3491366383900079</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.446119297565978</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.130680071977193</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.446119297565978</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5667887650.332035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003581713179712259</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.383286069562009</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8913534422842281</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.383286069562009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6585827368.882118</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001854113415611512</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.136367975052383</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.920116885448055</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.136367975052383</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6603272521.474785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004454684840951339</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.086213156554073</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5544766970.762906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00377114062838086</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.340628088992715</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8848992900979792</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.340628088992715</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4233746163.251287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00103367677019802</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.032706830255464</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.862300088637989</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-5.032706830255464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8287068708.773015</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003729064356500666</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.22511792570318</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9548886237235139</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-5.22511792570318</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6318769119.70787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005693841668746986</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.758202125394382</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.814060050338919</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.758202125394382</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7800373141.374262</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001247534133215941</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.306292162968649</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9873734597587176</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.306292162968649</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5907054424.456496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003515246769036782</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.071211599786952</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9132339622587228</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.071211599786952</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7510410675.155951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002858427173108654</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.353583257408382</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9457869398971568</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.353583257408382</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4469044128.758157</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001021185730341995</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.488151879965116</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9504734302830413</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.488151879965116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7421800442.918949</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002650561692490913</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.373571092449239</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8972327661343859</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-7.373571092449239</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7739547274.895145</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004330877236468871</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8797464793432896</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6002522845.103733</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001860780000348269</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.273410560697084</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9897408165820968</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.273410560697084</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6469120514.850437</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003313838405821251</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.728003971748776</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9354733839788421</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.728003971748776</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6175516773.680323</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005538085844872136</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.452839397326753</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08211469608225</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-7.452839397326753</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4169953408.990645</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003310174899071141</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.198469145567035</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8753408876150807</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.198469145567035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4446375224.92432</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002687178102196174</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.473986365375679</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9180866385133539</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.473986365375679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5057944779.913502</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003889330865531576</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.469799197114471</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.045541104683771</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.469799197114471</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5226902878.012149</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001167119959325777</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.300476659183289</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9758309906793423</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-7.300476659183289</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>7030204004.710239</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004983024778995147</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.098849405238443</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.996912518043431</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.098849405238443</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5972844869.258096</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004598379668385722</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.399136248776454</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9833453467346724</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-7.399136248776454</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5418459337.21181</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001867990371357797</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.01486537706289395</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.40044626496602</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.4935312304600901</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.40044626496602</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4004280301.226099</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001693677269751504</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.06317983302598881</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.483876616537869</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-0.2411235475139387</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.483876616537869</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9134920288.300619</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00341127529251889</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9487581349087554</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7992608169.529778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003342771392013078</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.008919019124723</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5486420177.067007</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003310468950575111</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.327514117183696</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9865482641395019</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.327514117183696</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5180410139.789853</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004310857659258796</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.488934764364139</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7435431763205945</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.488934764364139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8553159134.097729</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003407386264545394</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.352375641822853</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.041510278173377</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-7.352375641822853</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5598964000.313125</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00356623257048119</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5.268836138171675</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9841732278943421</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-5.268836138171675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8208867836.53848</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001953310663163298</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8428892188255245</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.133693551348616</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.09091217192072</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-5.133693551348616</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7205674495.633094</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003409293665092638</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7.294539693342245</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9844141437704849</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-7.294539693342245</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4321865143.164399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004993813400117984</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.200310345796581</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8284337753413326</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.200310345796581</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7178097213.124056</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003681353710545755</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.192152549532995</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9337305334058401</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-5.192152549532995</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5044392673.189765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002125372108139276</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.315198471577472</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9725927800669174</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.315198471577472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7171480127.711265</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004363265162378593</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7763075716639104</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5.158557065157648</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.015132955579183</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-5.158557065157648</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6180876302.740947</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00190638369501984</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.828104351630627</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.583289476712557</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9859331788429695</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.583289476712557</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6656972428.771904</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003260014127370728</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9604772206083456</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.242616729930385</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.190513852510101</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.242616729930385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5142908732.519168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003702683397473411</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.079140295722817</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8561809185632816</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-5.079140295722817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6491147384.599069</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004529082784666758</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0513011502970912</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.403260056084204</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.5102851523846372</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.403260056084204</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5336453248.044913</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003777739303000603</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.9045768920478496</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7.860764044832112</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.204590898004485</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-7.860764044832112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7644220709.888947</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004237174713811152</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.241701064476737</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9939816024711781</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-7.241701064476737</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4536328125.231018</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004207695579733351</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.238947433614511</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9485081626449674</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.238947433614511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5317268337.986046</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005746714661263149</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.730079464734941</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.07038992397605</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-7.730079464734941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6554927635.21287</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003802655971881658</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9759013111798839</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.393114122508056</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.141051043138896</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.393114122508056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5016538165.150242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003762257979560212</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.36756817311592</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.931729951189976</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.36756817311592</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7070309267.585444</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002312749476064727</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.067822410692809</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7667655541803138</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.067822410692809</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5887336932.378113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001057383910991584</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.273940194494979</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9723489352526113</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.273940194494979</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8028487423.62161</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002662826090337393</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.096182123421425</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9395970681728321</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.096182123421425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5278734442.133976</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003130814628499541</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.232594613744695</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8564578385789186</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.232594613744695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5988336541.122148</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001567104974442707</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.151075745424942</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6641561516.000838</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001414317060975322</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.26086896710992</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.004505241976172</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.26086896710992</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6465269963.992006</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004017135081745535</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.215643262191582</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9395970681728321</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.215643262191582</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6557684971.605224</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002791426512729408</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.814507522387071</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7837867368187577</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.814507522387071</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7623808597.623401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002545773890825892</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.369516324517861</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9060370813644968</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.369516324517861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5668281323.238443</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005900767546109601</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.240676071929138</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9777413407645736</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.240676071929138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5960397297.014718</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003571069373580228</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.237727483852931</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9415809352301379</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.237727483852931</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7074680144.456678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002101905958298005</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.203444931662133</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9025484952486289</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.203444931662133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7207746042.02059</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003228755017799016</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.577513152508985</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9535380874692603</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.577513152508985</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5480123693.356648</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003286027176726801</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.205664351250405</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.006596767419256</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.205664351250405</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6968055559.827621</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004866399723710248</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.358599145480334</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9715109779758804</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-7.358599145480334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6797156662.926787</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002431335143563053</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8692187953652837</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.13118080455284</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.131697868018351</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-5.13118080455284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4784802466.945632</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005380393719081431</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.174320244608801</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9863078695444218</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-5.174320244608801</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4741250840.618839</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002785699592994739</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.14166556256442</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9493664235496048</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-5.14166556256442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8697114234.388079</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002300207157326336</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.464693631236792</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.01261127847331</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.464693631236792</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4594075542.632437</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001015776887857122</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.716479539787133</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9309661165102899</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.716479539787133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5837250885.867096</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005620785027503119</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.134459543052421</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.862300088637989</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-5.134459543052421</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8263490012.612663</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003836968410246788</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.01947241496645797</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.836924079486534</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.5711672101756678</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.836924079486534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5729347995.396784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002607957930520494</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.130511991281377</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9570885824926939</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-5.130511991281377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5561825386.992048</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003533140091959094</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.146763929178621</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8589099488797184</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.146763929178621</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4148086593.228076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004072125150109181</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2876327694701073</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.805003353023784</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.5317116690131203</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.805003353023784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7698496396.985806</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001518290016233021</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.218345275165094</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.948258124485482</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-5.218345275165094</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6679396572.457479</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001042315012695193</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.095851439100028</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5957899965.940434</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002905069572256661</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.982454538059342</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.214296057072562</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.224423310547187</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.214296057072562</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8470136520.864996</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002382459751006643</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5.251905958975353</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.4264014327112209</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-5.251905958975353</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5706123149.573876</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004305725349009833</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>7.42061519104592</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.954035330665144</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-7.42061519104592</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6249832054.774276</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005113111487188063</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.096982659175969</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8220625539294893</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-4.096982659175969</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2564067843.953443</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005947576368897784</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.026484725084858</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4513405176.877916</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002499124415207595</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.212097671777967</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7787062159260253</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.212097671777967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7187733160.89289</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001218207404312654</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5737145704344397</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.564978658123992</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8656769521279905</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.564978658123992</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8956863661.557245</v>
+        <v>1520411680.368802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004129641046056736</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+        <v>0.1088857766611543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02745129036576839</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>760205770.9313837</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5867381119.67151</v>
+        <v>2213803139.190064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005379228347816557</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1444038104644449</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04904160017365191</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1106901642.355954</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6462977920.097515</v>
+        <v>4383967996.082996</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003213055661326433</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>0.1089816680142914</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02677369840393835</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2191984039.026089</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3809099537.876777</v>
+        <v>4216485926.525511</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003492585291605102</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09754267925168535</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04379186098037188</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2108242952.311623</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6747739406.986707</v>
+        <v>1901801249.340379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002049255229371355</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.1425581210888486</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03879951288361076</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
+      <c r="J6" t="n">
+        <v>950900664.5259666</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6698564295.391161</v>
+        <v>2983678326.301075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001211388532649259</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>0.09781320060678438</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04380546791652191</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1491839129.015042</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6744328077.61253</v>
+        <v>3081334381.158644</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002223143520910765</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.1660310091565923</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03016292035445402</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1540667256.028691</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4515289545.225926</v>
+        <v>1887866614.544992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005236397902758104</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+        <v>0.1371486022346622</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02929170475542496</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>943933349.0588338</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3099834515.659041</v>
+        <v>5289791768.998244</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004142887000070945</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1986435075633212</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04217467501297943</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2644896005.841392</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4424373182.509093</v>
+        <v>3122912750.355026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001297863843500102</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1545024570765654</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04356490844449374</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1561456326.255315</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5891973797.538106</v>
+        <v>2788942255.070354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001603406866134586</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>0.1205575912215766</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03496109876636755</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1394471125.867308</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4691633006.479028</v>
+        <v>3404995437.543236</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004325407183095029</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07670770610394785</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02650837150292647</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1702497803.564342</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5942811552.108464</v>
+        <v>3298615584.821744</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003563246251259875</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>0.1137590568479831</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0403766291986797</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1649307804.846957</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7703362255.265001</v>
+        <v>1230455518.124974</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005632160682698572</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
+        <v>0.09443853140367602</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03595642136629203</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>615227782.9955961</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8197084121.280508</v>
+        <v>2077949511.896705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003431608476808332</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
+        <v>0.07176030057325532</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05031189844964745</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1038974824.146867</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5666110432.290013</v>
+        <v>4699718640.272718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002626677989185726</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>0.1710555950198293</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04434097361840555</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2349859319.731012</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6944921111.793509</v>
+        <v>3737839581.310908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001128327355328205</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1304659016810282</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03132538055852501</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1868919767.076468</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2866299599.650349</v>
+        <v>885679151.5425206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0018070738514256</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.141447602685514</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02619759267882529</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>442839576.8413288</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4782454052.891217</v>
+        <v>2414247890.424181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001110768528703153</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1023678783790089</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02815602192927105</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1207123926.996598</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6366730587.291769</v>
+        <v>2702048271.584832</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003682960934331306</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+        <v>0.07163977157754808</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04301013195685109</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1351024104.210062</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5667887650.332035</v>
+        <v>2871579893.428699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003581713179712259</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1074445186612059</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04863731632797438</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1435790015.585367</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6585827368.882118</v>
+        <v>950659699.6172758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001854113415611512</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>0.127100875992729</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04931326688334586</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>475329927.7524681</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6603272521.474785</v>
+        <v>2845182171.630644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004454684840951339</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
+        <v>0.1470543440436551</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02272373452992264</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1422591131.130915</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5544766970.762906</v>
+        <v>1124506471.696437</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00377114062838086</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.0812062837187708</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01938335832501355</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>562253270.8155386</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4233746163.251287</v>
+        <v>1036753548.653237</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00103367677019802</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08366779337443586</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03402224943144912</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>518376754.8643706</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8287068708.773015</v>
+        <v>4137938335.455474</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003729064356500666</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
+        <v>0.128312959199226</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02165533955338459</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2068969170.619653</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3409623269.857793</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1086566469439277</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04891461463845848</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6318769119.70787</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.005693841668746986</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1704811681.355194</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3810209841.639166</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1303489468722815</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04629958452874141</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>5</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7800373141.374262</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.001247534133215941</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+      <c r="J29" t="n">
+        <v>1905104950.595469</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5907054424.456496</v>
+        <v>2384886106.949776</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003515246769036782</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
+        <v>0.1159590708407084</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02792747996283688</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1192443134.1373</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7510410675.155951</v>
+        <v>1432179570.692219</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002858427173108654</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+        <v>0.07616819975398259</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03983895188216847</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>716089681.7164299</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4469044128.758157</v>
+        <v>1516456372.799099</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001021185730341995</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1171127541608336</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02403434387902946</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>758228257.7514848</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7421800442.918949</v>
+        <v>2150450110.451955</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002650561692490913</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
+        <v>0.1588709909244109</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04047294582537213</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1075225122.840277</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7739547274.895145</v>
+        <v>1311843502.700485</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004330877236468871</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
+        <v>0.1147029575529725</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02346795545513474</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>655921737.6293499</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6002522845.103733</v>
+        <v>1305507356.144378</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001860780000348269</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
+        <v>0.1162480889553947</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02832164764231335</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>652753629.1113303</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6469120514.850437</v>
+        <v>2172533421.398375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003313838405821251</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
+        <v>0.1330123706076023</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02883030768688868</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1086266758.502711</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6175516773.680323</v>
+        <v>2247819843.449029</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005538085844872136</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.0770286712281605</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03824282058680264</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1123909982.733184</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4169953408.990645</v>
+        <v>1807072269.889039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003310174899071141</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1100183224290468</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0325151914148304</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>903536140.4070112</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4446375224.92432</v>
+        <v>1708061704.890604</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002687178102196174</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1693036573913851</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02961271734731302</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>854030890.8713027</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5057944779.913502</v>
+        <v>1507444405.656419</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003889330865531576</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
+        <v>0.1563547191664918</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0464952739834297</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>753722166.7814069</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5226902878.012149</v>
+        <v>2602666082.347423</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001167119959325777</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1070931111164766</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04404521914461188</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1301333056.038389</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>7030204004.710239</v>
+        <v>4032677929.250675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004983024778995147</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.09854953748242284</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0346137156570618</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2016338995.772738</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5972844869.258096</v>
+        <v>2981291234.921875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004598379668385722</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
+        <v>0.1783754055332903</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01818513266879255</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1490645617.350569</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5418459337.21181</v>
+        <v>1958134714.814281</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001867990371357797</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
+        <v>0.08450304092765706</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02308905831637359</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>979067454.9754305</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4004280301.226099</v>
+        <v>1927202433.111635</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001693677269751504</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.178659838655122</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0441104379435184</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>963601199.6703238</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9134920288.300619</v>
+        <v>5517868448.172611</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00341127529251889</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1456843011600778</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05820419617469865</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2758934280.127461</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7992608169.529778</v>
+        <v>3944257203.477842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003342771392013078</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+        <v>0.1417686644736158</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05210215609732795</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1972128597.329326</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5486420177.067007</v>
+        <v>4707612706.433198</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003310468950575111</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
+        <v>0.1029699114279429</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03708074149337924</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2353806345.961359</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5180410139.789853</v>
+        <v>1653464961.639852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004310857659258796</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1515277475001886</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03313785061684436</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>826732488.5283024</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8553159134.097729</v>
+        <v>2544865066.193691</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003407386264545394</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
+        <v>0.1233235965456605</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04306567475174507</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1272432625.066901</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5598964000.313125</v>
+        <v>1542696804.981013</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00356623257048119</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.167706123049823</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03409560837993707</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>771348398.2659905</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8208867836.53848</v>
+        <v>3473911887.633462</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001953310663163298</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
+        <v>0.09202619215279786</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05283190861535667</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1736956030.8712</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7205674495.633094</v>
+        <v>3687616935.520823</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003409293665092638</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1461445773714821</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02547378598723756</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1843808452.160771</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4321865143.164399</v>
+        <v>3177342153.670643</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004993813400117984</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1436291937201767</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03974250262377974</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1588671076.069024</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7178097213.124056</v>
+        <v>3736866448.87747</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003681353710545755</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
+        <v>0.2090462783030914</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02226440323785583</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1868433187.337991</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5044392673.189765</v>
+        <v>1814938328.09563</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002125372108139276</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1579596534960229</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05699839659690459</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>907469159.4094992</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7171480127.711265</v>
+        <v>3381323922.611259</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004363265162378593</v>
-      </c>
-      <c r="G57" t="b">
+        <v>0.1764912280672748</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0248157401037037</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>2</v>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1690661997.35426</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6180876302.740947</v>
+        <v>1359474103.327332</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00190638369501984</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
+        <v>0.1316100419950773</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02575063354364254</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>679737095.2276112</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6656972428.771904</v>
+        <v>3796260843.689463</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003260014127370728</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.09735228643151499</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04126449876218916</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1898130407.22368</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5142908732.519168</v>
+        <v>2683086084.469964</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003702683397473411</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1633264445346631</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02588377532757241</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1341543079.015175</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6491147384.599069</v>
+        <v>2566605133.180528</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004529082784666758</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
+        <v>0.1800819945484157</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02393976594410494</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1283302587.538082</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5336453248.044913</v>
+        <v>1405615025.633115</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003777739303000603</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
+        <v>0.1242020080264164</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03301849819596787</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>702807481.2583134</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7644220709.888947</v>
+        <v>4787102798.960733</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004237174713811152</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
+        <v>0.08592751781436887</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0423655332458537</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2393551426.393688</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>491</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4294744143.390356</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.143279362030573</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02452831323154725</v>
+      </c>
+      <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>545</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4536328125.231018</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.004207695579733351</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2147372127.931493</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5317268337.986046</v>
+        <v>5106408936.708821</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005746714661263149</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+        <v>0.1580176858456687</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02140474780240416</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2553204420.503552</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6554927635.21287</v>
+        <v>4264096963.289951</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003802655971881658</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1527809411470102</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0444361499988614</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2132048468.982442</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5016538165.150242</v>
+        <v>2915463491.386888</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003762257979560212</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
+        <v>0.09386633895334147</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04619173669199474</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1457731770.740754</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7070309267.585444</v>
+        <v>3763861407.834131</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002312749476064727</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
+        <v>0.1305295265611534</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04117584207755919</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1881930685.145615</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5887336932.378113</v>
+        <v>2273261493.745266</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001057383910991584</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1631994044912851</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05884138212082086</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1136630786.711186</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8028487423.62161</v>
+        <v>3059063666.629021</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002662826090337393</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
+        <v>0.06550099462891591</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04163113485521057</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1529531813.765213</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5278734442.133976</v>
+        <v>4749000884.73347</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003130814628499541</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1167929878980914</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02934104710924695</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2374500528.879661</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5988336541.122148</v>
+        <v>1432736793.360583</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001567104974442707</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
+        <v>0.08065394948005761</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0439039254083216</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>716368434.1044723</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6641561516.000838</v>
+        <v>3398743304.934957</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001414317060975322</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.1028430083448473</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03936750121452981</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1699371611.518333</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6465269963.992006</v>
+        <v>2659888349.153007</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004017135081745535</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+        <v>0.1515964486000017</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03482723689857041</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1329944268.968014</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6557684971.605224</v>
+        <v>1552321622.339405</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002791426512729408</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
+        <v>0.123343644109975</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03487796672325751</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>776160817.1737925</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7623808597.623401</v>
+        <v>4994635366.311413</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002545773890825892</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1138030921142009</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02110151589908582</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2497317709.203414</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5668281323.238443</v>
+        <v>2216726862.167892</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005900767546109601</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1354133906465239</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02646626850939564</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1108363524.209929</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5960397297.014718</v>
+        <v>3761454804.491844</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003571069373580228</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
+        <v>0.1156787358741275</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0354863174679006</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1880727384.669679</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7074680144.456678</v>
+        <v>1240494675.733946</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002101905958298005</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
+        <v>0.1310879507395337</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02496186439926299</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>620247326.1598715</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7207746042.02059</v>
+        <v>3578896112.363969</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003228755017799016</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
+        <v>0.0836982005682043</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02677396007656844</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1789448034.397056</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5480123693.356648</v>
+        <v>3791488919.115866</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003286027176726801</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1231907741577832</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02538389921045262</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1895744414.612471</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6968055559.827621</v>
+        <v>4143022345.224862</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004866399723710248</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
+        <v>0.1926076624788476</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01869581561329878</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2071511203.941849</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6797156662.926787</v>
+        <v>1751935317.124073</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002431335143563053</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1578676646953193</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04442590447591874</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>875967612.4105428</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4784802466.945632</v>
+        <v>1571109061.151052</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005380393719081431</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.1152839102330148</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04699682416594834</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>785554598.1061051</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>541</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3478875944.222127</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1643557935435944</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04096776197707917</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" t="n">
-        <v>512</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4741250840.618839</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.002785699592994739</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1739438084.713554</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8697114234.388079</v>
+        <v>2255680079.87587</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002300207157326336</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+        <v>0.1731754386040113</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02496415971417334</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1127840102.759781</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4594075542.632437</v>
+        <v>1279832956.859355</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001015776887857122</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1757849075812174</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03827255746383541</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>639916554.1164408</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3387370976.337651</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1570113976203245</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03929067341890874</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5837250885.867096</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.005620785027503119</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1693685556.563742</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8263490012.612663</v>
+        <v>2500197811.941559</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003836968410246788</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.116175029760271</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03127855779049739</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1250098980.379722</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5729347995.396784</v>
+        <v>1769181914.421759</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002607957930520494</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.09866539793197088</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05243441983076684</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>884590984.8071289</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5561825386.992048</v>
+        <v>1476364772.633601</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003533140091959094</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
+        <v>0.1685840895561078</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05164075554018056</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>738182428.0573642</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4148086593.228076</v>
+        <v>2259731252.624114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004072125150109181</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08853665753901892</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03637656404097018</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1129865591.758181</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7698496396.985806</v>
+        <v>3586692581.668584</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001518290016233021</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
+        <v>0.1134203903068927</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04887339495636002</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1793346317.799028</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6679396572.457479</v>
+        <v>1716198164.402669</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001042315012695193</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>4</v>
+        <v>0.1661872342261473</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04297461078848383</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>858099043.1640375</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5957899965.940434</v>
+        <v>2653723962.671823</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002905069572256661</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
+        <v>0.1332028028866939</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04685857112689571</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1326862005.878978</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8470136520.864996</v>
+        <v>2343897743.433741</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002382459751006643</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
+        <v>0.120778548802837</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03664082649785094</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1171948821.630172</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5706123149.573876</v>
+        <v>3635127353.155392</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004305725349009833</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
+        <v>0.1104753750217466</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02578536300760938</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1817563703.308846</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6249832054.774276</v>
+        <v>2668430316.923298</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005113111487188063</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>4</v>
+        <v>0.09921875384077908</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02951470621781312</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1334215120.25434</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2564067843.953443</v>
+        <v>3007978657.267073</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005947576368897784</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1280281941227684</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03358416347123415</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1503989314.811417</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4513405176.877916</v>
+        <v>3891466887.816547</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002499124415207595</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1124224256313231</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02737189178077292</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1945733505.534039</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7187733160.89289</v>
+        <v>3376114827.272385</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001218207404312654</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>3</v>
+        <v>0.133954993680217</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05058924269174766</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1688057552.017286</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1520411680.368802</v>
+        <v>2413379351.253326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1088857766611543</v>
+        <v>0.07042556319070407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02745129036576839</v>
+        <v>0.03578449129662917</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>760205770.9313837</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2213803139.190064</v>
+        <v>1861955509.947278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1444038104644449</v>
+        <v>0.1133621519509702</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04904160017365191</v>
+        <v>0.04360397107876696</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1106901642.355954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4383967996.082996</v>
+        <v>4182039090.528471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1089816680142914</v>
+        <v>0.1236044479089066</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02677369840393835</v>
+        <v>0.02487990686511271</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2191984039.026089</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4216485926.525511</v>
+        <v>3217843578.536886</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09754267925168535</v>
+        <v>0.06680694018288849</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04379186098037188</v>
+        <v>0.03457609844857037</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2108242952.311623</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1901801249.340379</v>
+        <v>1840876586.205168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1425581210888486</v>
+        <v>0.1297113909971861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03879951288361076</v>
+        <v>0.0518002139143585</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>950900664.5259666</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2983678326.301075</v>
+        <v>1906471694.005461</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09781320060678438</v>
+        <v>0.09459453098494945</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04380546791652191</v>
+        <v>0.04768071772936446</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1491839129.015042</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3081334381.158644</v>
+        <v>3721588434.435633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1660310091565923</v>
+        <v>0.1731602117834901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03016292035445402</v>
+        <v>0.02838809277935197</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1540667256.028691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1887866614.544992</v>
+        <v>1750879176.139806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1371486022346622</v>
+        <v>0.1899079221046168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02929170475542496</v>
+        <v>0.02827269129031378</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>943933349.0588338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5289791768.998244</v>
+        <v>3789845063.139782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986435075633212</v>
+        <v>0.1464603479969815</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04217467501297943</v>
+        <v>0.04134113638499306</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2644896005.841392</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3122912750.355026</v>
+        <v>4181471883.341791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1545024570765654</v>
+        <v>0.149047382062452</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04356490844449374</v>
+        <v>0.039130936009471</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1561456326.255315</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2788942255.070354</v>
+        <v>2387999193.208455</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1205575912215766</v>
+        <v>0.1203137471078736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03496109876636755</v>
+        <v>0.04281090361692617</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1394471125.867308</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3404995437.543236</v>
+        <v>4746124196.334126</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07670770610394785</v>
+        <v>0.09496833279657467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02650837150292647</v>
+        <v>0.02825479682034896</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1702497803.564342</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3298615584.821744</v>
+        <v>2948739386.806326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1137590568479831</v>
+        <v>0.1152522190587852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0403766291986797</v>
+        <v>0.03794178373906894</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1649307804.846957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1230455518.124974</v>
+        <v>1645234564.68144</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09443853140367602</v>
+        <v>0.07339507548720252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03595642136629203</v>
+        <v>0.04782481360709009</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>615227782.9955961</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2077949511.896705</v>
+        <v>2743448310.655195</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07176030057325532</v>
+        <v>0.07418764111533729</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05031189844964745</v>
+        <v>0.03479607757842217</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1038974824.146867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4699718640.272718</v>
+        <v>4527596087.149275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1710555950198293</v>
+        <v>0.136607528448134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04434097361840555</v>
+        <v>0.04938411013564391</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2349859319.731012</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3737839581.310908</v>
+        <v>2690922719.939552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1304659016810282</v>
+        <v>0.1385908651787711</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03132538055852501</v>
+        <v>0.02106515330542956</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1868919767.076468</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>885679151.5425206</v>
+        <v>1280846717.369346</v>
       </c>
       <c r="F19" t="n">
-        <v>0.141447602685514</v>
+        <v>0.1902282186318058</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02619759267882529</v>
+        <v>0.02133131462738899</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>442839576.8413288</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2414247890.424181</v>
+        <v>2309814609.787409</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1023678783790089</v>
+        <v>0.1392903952502922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02815602192927105</v>
+        <v>0.02489392866539754</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1207123926.996598</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2702048271.584832</v>
+        <v>1869994891.659821</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07163977157754808</v>
+        <v>0.09935193856064727</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04301013195685109</v>
+        <v>0.03963336764029857</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1351024104.210062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2871579893.428699</v>
+        <v>3408590847.444001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1074445186612059</v>
+        <v>0.1241448504506528</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04863731632797438</v>
+        <v>0.0501924754930982</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1435790015.585367</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950659699.6172758</v>
+        <v>1012931671.091334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.127100875992729</v>
+        <v>0.1442679085651367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04931326688334586</v>
+        <v>0.04883325234668379</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>475329927.7524681</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2845182171.630644</v>
+        <v>2996492635.009443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1470543440436551</v>
+        <v>0.1405890106822284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02272373452992264</v>
+        <v>0.02558423442103063</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1422591131.130915</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1124506471.696437</v>
+        <v>1011270829.889242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0812062837187708</v>
+        <v>0.1139097410063312</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01938335832501355</v>
+        <v>0.02760109006364916</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>562253270.8155386</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1036753548.653237</v>
+        <v>1166974578.491525</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08366779337443586</v>
+        <v>0.1090724468570546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03402224943144912</v>
+        <v>0.03202151605336406</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>518376754.8643706</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4137938335.455474</v>
+        <v>2945848723.738957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.128312959199226</v>
+        <v>0.1050741159112631</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02165533955338459</v>
+        <v>0.02378011953450929</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2068969170.619653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3409623269.857793</v>
+        <v>3363623544.683265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1086566469439277</v>
+        <v>0.09208907899064882</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04891461463845848</v>
+        <v>0.03500223146370871</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1704811681.355194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3810209841.639166</v>
+        <v>5920285010.847829</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1303489468722815</v>
+        <v>0.1056908613716391</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04629958452874141</v>
+        <v>0.04629740286972399</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1905104950.595469</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2384886106.949776</v>
+        <v>1730201617.763008</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1159590708407084</v>
+        <v>0.09662892116011203</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02792747996283688</v>
+        <v>0.03064742869228138</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1192443134.1373</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1432179570.692219</v>
+        <v>985274416.3312435</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07616819975398259</v>
+        <v>0.0867609273586597</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03983895188216847</v>
+        <v>0.04835072933092111</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>716089681.7164299</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1516456372.799099</v>
+        <v>1683353948.002892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1171127541608336</v>
+        <v>0.108750071444412</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02403434387902946</v>
+        <v>0.03213039305152046</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>758228257.7514848</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2150450110.451955</v>
+        <v>2656496676.625225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1588709909244109</v>
+        <v>0.1989139065714178</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04047294582537213</v>
+        <v>0.0459578929079025</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1075225122.840277</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1311843502.700485</v>
+        <v>1548425781.654528</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1147029575529725</v>
+        <v>0.1062242334139183</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02346795545513474</v>
+        <v>0.02220909615731309</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>655921737.6293499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1305507356.144378</v>
+        <v>1063986104.692549</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1162480889553947</v>
+        <v>0.08678468641312319</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832164764231335</v>
+        <v>0.03614202109735762</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>652753629.1113303</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2172533421.398375</v>
+        <v>3013529879.443689</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1330123706076023</v>
+        <v>0.1172102424011259</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02883030768688868</v>
+        <v>0.01919156188660056</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1086266758.502711</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2247819843.449029</v>
+        <v>1890007056.386763</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0770286712281605</v>
+        <v>0.09375962530721375</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03824282058680264</v>
+        <v>0.02720982052913718</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1123909982.733184</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1807072269.889039</v>
+        <v>1846419985.247823</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1100183224290468</v>
+        <v>0.1168836893873789</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0325151914148304</v>
+        <v>0.03350655516828849</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>903536140.4070112</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1708061704.890604</v>
+        <v>1869543756.006964</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1693036573913851</v>
+        <v>0.1495271706310155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02961271734731302</v>
+        <v>0.02426001816133731</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>854030890.8713027</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507444405.656419</v>
+        <v>1122546012.668013</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1563547191664918</v>
+        <v>0.1360104902543459</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0464952739834297</v>
+        <v>0.05511495096430444</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>753722166.7814069</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2602666082.347423</v>
+        <v>2326522156.719326</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1070931111164766</v>
+        <v>0.1347013454269428</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04404521914461188</v>
+        <v>0.04620425976265001</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1301333056.038389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4032677929.250675</v>
+        <v>2955391754.654977</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09854953748242284</v>
+        <v>0.0942947350579728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0346137156570618</v>
+        <v>0.04363243943816534</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2016338995.772738</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2981291234.921875</v>
+        <v>2714609528.840206</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1783754055332903</v>
+        <v>0.1535480817742485</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01818513266879255</v>
+        <v>0.0220763869992109</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1490645617.350569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1958134714.814281</v>
+        <v>1449280743.017625</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08450304092765706</v>
+        <v>0.07273623520307487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02308905831637359</v>
+        <v>0.034381618060334</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>979067454.9754305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1927202433.111635</v>
+        <v>2361856916.488288</v>
       </c>
       <c r="F45" t="n">
-        <v>0.178659838655122</v>
+        <v>0.1200522161089246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0441104379435184</v>
+        <v>0.03458301183996345</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>963601199.6703238</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5517868448.172611</v>
+        <v>5449905888.004099</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1456843011600778</v>
+        <v>0.1493947834565</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05820419617469865</v>
+        <v>0.05823179859487186</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2758934280.127461</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3944257203.477842</v>
+        <v>3181883252.830796</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1417686644736158</v>
+        <v>0.1628510887558741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05210215609732795</v>
+        <v>0.04430321000206704</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1972128597.329326</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4707612706.433198</v>
+        <v>3440619638.319763</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1029699114279429</v>
+        <v>0.06914762680719512</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03708074149337924</v>
+        <v>0.03821079415358673</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2353806345.961359</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1653464961.639852</v>
+        <v>1267048026.412018</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1515277475001886</v>
+        <v>0.1656490290391931</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03313785061684436</v>
+        <v>0.03535617498311162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>826732488.5283024</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2544865066.193691</v>
+        <v>4166027375.979845</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1233235965456605</v>
+        <v>0.1612513523937274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04306567475174507</v>
+        <v>0.03614876051503964</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1272432625.066901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1542696804.981013</v>
+        <v>1542316480.062165</v>
       </c>
       <c r="F51" t="n">
-        <v>0.167706123049823</v>
+        <v>0.1218667173733101</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03409560837993707</v>
+        <v>0.04814375734077839</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>771348398.2659905</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3473911887.633462</v>
+        <v>3433406159.441739</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09202619215279786</v>
+        <v>0.1147864288946573</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05283190861535667</v>
+        <v>0.05948223904249708</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1736956030.8712</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3687616935.520823</v>
+        <v>3571866856.067642</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1461445773714821</v>
+        <v>0.1486829288925278</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02547378598723756</v>
+        <v>0.03032575833532391</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1843808452.160771</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3177342153.670643</v>
+        <v>3048196811.159322</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436291937201767</v>
+        <v>0.1416685557079641</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03974250262377974</v>
+        <v>0.05056692972337324</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1588671076.069024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3736866448.87747</v>
+        <v>4653913325.865953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2090462783030914</v>
+        <v>0.1874062285083715</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02226440323785583</v>
+        <v>0.02776100731795898</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1868433187.337991</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1814938328.09563</v>
+        <v>1350277763.31918</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1579596534960229</v>
+        <v>0.1578279139093387</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05699839659690459</v>
+        <v>0.0373564370570247</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>907469159.4094992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3381323922.611259</v>
+        <v>3230449246.289904</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1764912280672748</v>
+        <v>0.1578844604022249</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0248157401037037</v>
+        <v>0.02568278437772049</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1690661997.35426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1359474103.327332</v>
+        <v>1411955336.622094</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1316100419950773</v>
+        <v>0.15975413944734</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02575063354364254</v>
+        <v>0.03810969079588136</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>679737095.2276112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3796260843.689463</v>
+        <v>4384036694.789389</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09735228643151499</v>
+        <v>0.1180141819054486</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04126449876218916</v>
+        <v>0.03894083784100816</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1898130407.22368</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2683086084.469964</v>
+        <v>2528849161.737717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1633264445346631</v>
+        <v>0.1897477569461398</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02588377532757241</v>
+        <v>0.02176655538612077</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1341543079.015175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2566605133.180528</v>
+        <v>2897908661.326808</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1800819945484157</v>
+        <v>0.1119403455199065</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02393976594410494</v>
+        <v>0.02662643653021783</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1283302587.538082</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1405615025.633115</v>
+        <v>1965466124.086234</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1242020080264164</v>
+        <v>0.1902389151275203</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03301849819596787</v>
+        <v>0.03664594922940821</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>702807481.2583134</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4787102798.960733</v>
+        <v>3465076417.274246</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08592751781436887</v>
+        <v>0.07933472600111749</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0423655332458537</v>
+        <v>0.04200028994468735</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2393551426.393688</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4294744143.390356</v>
+        <v>3798759037.045501</v>
       </c>
       <c r="F64" t="n">
-        <v>0.143279362030573</v>
+        <v>0.1863627745653118</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02452831323154725</v>
+        <v>0.03399335640390973</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2147372127.931493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5106408936.708821</v>
+        <v>4113672155.876657</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1580176858456687</v>
+        <v>0.1276059974357081</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02140474780240416</v>
+        <v>0.0319746110475014</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2553204420.503552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4264096963.289951</v>
+        <v>4597243986.756861</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1527809411470102</v>
+        <v>0.1572556895422065</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0444361499988614</v>
+        <v>0.04556132705314524</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2132048468.982442</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2915463491.386888</v>
+        <v>2460077477.640366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09386633895334147</v>
+        <v>0.09577670933166636</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04619173669199474</v>
+        <v>0.04127687665836599</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1457731770.740754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3763861407.834131</v>
+        <v>5382681097.906713</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1305295265611534</v>
+        <v>0.1557535140251453</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04117584207755919</v>
+        <v>0.03653895493939054</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1881930685.145615</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2273261493.745266</v>
+        <v>2472052030.81895</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1631994044912851</v>
+        <v>0.1515237079076205</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05884138212082086</v>
+        <v>0.04105097366621332</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1136630786.711186</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3059063666.629021</v>
+        <v>2896522413.606472</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06550099462891591</v>
+        <v>0.08917213364472996</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04163113485521057</v>
+        <v>0.0365176525044539</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1529531813.765213</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4749000884.73347</v>
+        <v>4559549254.983731</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1167929878980914</v>
+        <v>0.1160445444816674</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02934104710924695</v>
+        <v>0.02540131306783388</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2374500528.879661</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1432736793.360583</v>
+        <v>1766643907.119934</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08065394948005761</v>
+        <v>0.09555812450428577</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0439039254083216</v>
+        <v>0.04320827199670414</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>716368434.1044723</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3398743304.934957</v>
+        <v>3482970740.100857</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1028430083448473</v>
+        <v>0.1006142740270716</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03936750121452981</v>
+        <v>0.04678908710636016</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1699371611.518333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2659888349.153007</v>
+        <v>3792299074.429751</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1515964486000017</v>
+        <v>0.1357638939511893</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03482723689857041</v>
+        <v>0.02968760942894058</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1329944268.968014</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1552321622.339405</v>
+        <v>1988941918.727028</v>
       </c>
       <c r="F75" t="n">
-        <v>0.123343644109975</v>
+        <v>0.1022257626327436</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03487796672325751</v>
+        <v>0.03061773347632583</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>776160817.1737925</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4994635366.311413</v>
+        <v>3330242512.71964</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1138030921142009</v>
+        <v>0.07825348760412626</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02110151589908582</v>
+        <v>0.02217105153631582</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2497317709.203414</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2216726862.167892</v>
+        <v>1821042853.763862</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1354133906465239</v>
+        <v>0.1385522919268767</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02646626850939564</v>
+        <v>0.02056483644696658</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1108363524.209929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3761454804.491844</v>
+        <v>3324150239.09874</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1156787358741275</v>
+        <v>0.09751621422981943</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0354863174679006</v>
+        <v>0.04324852157668443</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1880727384.669679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1240494675.733946</v>
+        <v>1783715772.118975</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1310879507395337</v>
+        <v>0.1626907121680911</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02496186439926299</v>
+        <v>0.03963220889220084</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>620247326.1598715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3578896112.363969</v>
+        <v>3933480933.582736</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0836982005682043</v>
+        <v>0.07072199736068129</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02677396007656844</v>
+        <v>0.03779055147233713</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1789448034.397056</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3791488919.115866</v>
+        <v>4441016912.43603</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1231907741577832</v>
+        <v>0.1115068759401285</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02538389921045262</v>
+        <v>0.02500672005925678</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1895744414.612471</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4143022345.224862</v>
+        <v>4828425959.789416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1926076624788476</v>
+        <v>0.1468804068455469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01869581561329878</v>
+        <v>0.02037532655338331</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2071511203.941849</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1751935317.124073</v>
+        <v>2154129167.754778</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1578676646953193</v>
+        <v>0.09776763117292207</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04442590447591874</v>
+        <v>0.02771055090945488</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>875967612.4105428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1571109061.151052</v>
+        <v>2521579928.291833</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1152839102330148</v>
+        <v>0.1025873990712828</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04699682416594834</v>
+        <v>0.05092610050930169</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>785554598.1061051</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3478875944.222127</v>
+        <v>2768812220.188719</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1643557935435944</v>
+        <v>0.1112850400847676</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04096776197707917</v>
+        <v>0.05146938034565475</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1739438084.713554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2255680079.87587</v>
+        <v>1798230070.20016</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1731754386040113</v>
+        <v>0.1507714100420904</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02496415971417334</v>
+        <v>0.01674925041767558</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1127840102.759781</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1279832956.859355</v>
+        <v>1131007590.408323</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1757849075812174</v>
+        <v>0.1344638093798093</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03827255746383541</v>
+        <v>0.02779834378825918</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>639916554.1164408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3387370976.337651</v>
+        <v>2259783169.934208</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1570113976203245</v>
+        <v>0.1390600008770765</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03929067341890874</v>
+        <v>0.02581134799280148</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1693685556.563742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2500197811.941559</v>
+        <v>2551688972.816757</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116175029760271</v>
+        <v>0.1357828963371631</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03127855779049739</v>
+        <v>0.03586579593110743</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1250098980.379722</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1769181914.421759</v>
+        <v>1940419605.226114</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09866539793197088</v>
+        <v>0.1150264435458919</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05243441983076684</v>
+        <v>0.05001183388033367</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>884590984.8071289</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1476364772.633601</v>
+        <v>1681681357.924628</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1685840895561078</v>
+        <v>0.1849192328562612</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05164075554018056</v>
+        <v>0.04411015824949708</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>738182428.0573642</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2259731252.624114</v>
+        <v>2568625488.660188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08853665753901892</v>
+        <v>0.09741356492112513</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03637656404097018</v>
+        <v>0.03267687652647985</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1129865591.758181</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3586692581.668584</v>
+        <v>4371213026.333002</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1134203903068927</v>
+        <v>0.1161738141682682</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04887339495636002</v>
+        <v>0.05103935369254074</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1793346317.799028</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1716198164.402669</v>
+        <v>1564090291.546419</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1661872342261473</v>
+        <v>0.1115783708264666</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04297461078848383</v>
+        <v>0.03114005745242007</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>858099043.1640375</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2653723962.671823</v>
+        <v>2748119484.705468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1332028028866939</v>
+        <v>0.1086849587188718</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04685857112689571</v>
+        <v>0.0406148907362241</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1326862005.878978</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2343897743.433741</v>
+        <v>2144662440.477796</v>
       </c>
       <c r="F96" t="n">
-        <v>0.120778548802837</v>
+        <v>0.1043640854047926</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03664082649785094</v>
+        <v>0.02972719741508332</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1171948821.630172</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3635127353.155392</v>
+        <v>3592181088.83255</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1104753750217466</v>
+        <v>0.1229004533079215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02578536300760938</v>
+        <v>0.0275134808291923</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1817563703.308846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2668430316.923298</v>
+        <v>3236928578.511182</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09921875384077908</v>
+        <v>0.08326893641053928</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02951470621781312</v>
+        <v>0.02684363144603202</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1334215120.25434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3007978657.267073</v>
+        <v>3117414345.131834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1280281941227684</v>
+        <v>0.1248875013006671</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03358416347123415</v>
+        <v>0.02913398340404578</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1503989314.811417</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3891466887.816547</v>
+        <v>4066523616.566207</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1124224256313231</v>
+        <v>0.1498255198854804</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02737189178077292</v>
+        <v>0.02233796252146373</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1945733505.534039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3376114827.272385</v>
+        <v>2575453083.886924</v>
       </c>
       <c r="F101" t="n">
-        <v>0.133954993680217</v>
+        <v>0.2068946565401073</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05058924269174766</v>
+        <v>0.04190948895860336</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1688057552.017286</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2413379351.253326</v>
+        <v>2012864864.88128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07042556319070407</v>
+        <v>0.1017008913364756</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03578449129662917</v>
+        <v>0.03957171806859486</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1861955509.947278</v>
+        <v>2412968693.879002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133621519509702</v>
+        <v>0.1401440307653015</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04360397107876696</v>
+        <v>0.04573035937649493</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4182039090.528471</v>
+        <v>3274254114.418402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1236044479089066</v>
+        <v>0.101880231199582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02487990686511271</v>
+        <v>0.02526024042867385</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3217843578.536886</v>
+        <v>2724870382.226528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06680694018288849</v>
+        <v>0.09829359415858725</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03457609844857037</v>
+        <v>0.042030906321146</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1840876586.205168</v>
+        <v>2599420071.761703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1297113909971861</v>
+        <v>0.116526482297785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0518002139143585</v>
+        <v>0.04716616553719722</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1906471694.005461</v>
+        <v>3135885231.497763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09459453098494945</v>
+        <v>0.09991947303562064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04768071772936446</v>
+        <v>0.04635308426174323</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3721588434.435633</v>
+        <v>3534113673.859316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1731602117834901</v>
+        <v>0.164352691134644</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02838809277935197</v>
+        <v>0.03345398125619897</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1750879176.139806</v>
+        <v>1924999925.546762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1899079221046168</v>
+        <v>0.1667785483950571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02827269129031378</v>
+        <v>0.02308143712254705</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3789845063.139782</v>
+        <v>3959079223.486644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1464603479969815</v>
+        <v>0.1428607447200623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04134113638499306</v>
+        <v>0.05311004172781975</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4181471883.341791</v>
+        <v>3860699243.730217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.149047382062452</v>
+        <v>0.1374143657384521</v>
       </c>
       <c r="G11" t="n">
-        <v>0.039130936009471</v>
+        <v>0.0400850093452696</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2387999193.208455</v>
+        <v>2672780993.076348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1203137471078736</v>
+        <v>0.1773199834511432</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04281090361692617</v>
+        <v>0.04059268342055021</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4746124196.334126</v>
+        <v>3430721653.322013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09496833279657467</v>
+        <v>0.07719748684699906</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02825479682034896</v>
+        <v>0.0227453931253955</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2948739386.806326</v>
+        <v>2540669578.13508</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1152522190587852</v>
+        <v>0.173523077980938</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03794178373906894</v>
+        <v>0.03196934697351504</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1645234564.68144</v>
+        <v>1487782815.48017</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07339507548720252</v>
+        <v>0.08680356115308663</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04782481360709009</v>
+        <v>0.03005726735647093</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743448310.655195</v>
+        <v>1945704973.826126</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07418764111533729</v>
+        <v>0.08218367090392575</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03479607757842217</v>
+        <v>0.04153840989016393</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4527596087.149275</v>
+        <v>4420928283.36466</v>
       </c>
       <c r="F17" t="n">
-        <v>0.136607528448134</v>
+        <v>0.1729988943744552</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04938411013564391</v>
+        <v>0.04595615936718582</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2690922719.939552</v>
+        <v>3191064453.972356</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1385908651787711</v>
+        <v>0.1394345806761928</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02106515330542956</v>
+        <v>0.0336255465465803</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1280846717.369346</v>
+        <v>1356179142.801502</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1902282186318058</v>
+        <v>0.186632536150348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02133131462738899</v>
+        <v>0.02479531991105675</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2309814609.787409</v>
+        <v>2101773282.096364</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1392903952502922</v>
+        <v>0.09782809172899787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02489392866539754</v>
+        <v>0.02574811813354702</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1869994891.659821</v>
+        <v>1665507297.725652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09935193856064727</v>
+        <v>0.07119234728527198</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03963336764029857</v>
+        <v>0.04584440676498192</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3408590847.444001</v>
+        <v>3373596594.677352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1241448504506528</v>
+        <v>0.1300711523400641</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0501924754930982</v>
+        <v>0.037551300785151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1012931671.091334</v>
+        <v>1543047673.39014</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1442679085651367</v>
+        <v>0.1162338865238025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04883325234668379</v>
+        <v>0.03461160696677022</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2996492635.009443</v>
+        <v>3023102092.677542</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1405890106822284</v>
+        <v>0.1432736854878978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02558423442103063</v>
+        <v>0.02504243425625491</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011270829.889242</v>
+        <v>1314745470.864395</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1139097410063312</v>
+        <v>0.1039955289180522</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02760109006364916</v>
+        <v>0.02931082088107805</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1166974578.491525</v>
+        <v>1343200529.491459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1090724468570546</v>
+        <v>0.1174363907254374</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03202151605336406</v>
+        <v>0.03754443045551475</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2945848723.738957</v>
+        <v>4104652113.801718</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1050741159112631</v>
+        <v>0.1487170364509788</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02378011953450929</v>
+        <v>0.0192674022928931</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3363623544.683265</v>
+        <v>3369612141.661386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09208907899064882</v>
+        <v>0.1396763854403847</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03500223146370871</v>
+        <v>0.04957028182979909</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5920285010.847829</v>
+        <v>5248461937.01428</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056908613716391</v>
+        <v>0.1206948008995673</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04629740286972399</v>
+        <v>0.03285949450104905</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1730201617.763008</v>
+        <v>2082686848.906751</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09662892116011203</v>
+        <v>0.1099281678352859</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03064742869228138</v>
+        <v>0.03800949653953647</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>985274416.3312435</v>
+        <v>1476204017.100594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0867609273586597</v>
+        <v>0.08985345570439715</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04835072933092111</v>
+        <v>0.04159604605722068</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1683353948.002892</v>
+        <v>1661467324.588567</v>
       </c>
       <c r="F32" t="n">
-        <v>0.108750071444412</v>
+        <v>0.1007486106964786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03213039305152046</v>
+        <v>0.03157109513392715</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2656496676.625225</v>
+        <v>2297184944.66547</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1989139065714178</v>
+        <v>0.1648421166463824</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0459578929079025</v>
+        <v>0.04368738866046965</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1548425781.654528</v>
+        <v>1031147246.656919</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1062242334139183</v>
+        <v>0.1185258966919259</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02220909615731309</v>
+        <v>0.0175598843798656</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1063986104.692549</v>
+        <v>992026586.022743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08678468641312319</v>
+        <v>0.08893281190302331</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03614202109735762</v>
+        <v>0.03225271338052403</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3013529879.443689</v>
+        <v>3255477688.687076</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1172102424011259</v>
+        <v>0.1192469598607609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01919156188660056</v>
+        <v>0.02495452960556816</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1890007056.386763</v>
+        <v>2063884832.836406</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09375962530721375</v>
+        <v>0.1083762271116017</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02720982052913718</v>
+        <v>0.02881232324570039</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1846419985.247823</v>
+        <v>1894791932.982044</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1168836893873789</v>
+        <v>0.08508010103710155</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03350655516828849</v>
+        <v>0.03391377138936859</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1869543756.006964</v>
+        <v>2023935767.566461</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1495271706310155</v>
+        <v>0.1735806826241355</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02426001816133731</v>
+        <v>0.0282595206885587</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1122546012.668013</v>
+        <v>1444935790.59164</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1360104902543459</v>
+        <v>0.1143491801436445</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05511495096430444</v>
+        <v>0.04380592518016319</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2326522156.719326</v>
+        <v>1868615414.476767</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1347013454269428</v>
+        <v>0.1402588823152905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04620425976265001</v>
+        <v>0.04408868074076607</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2955391754.654977</v>
+        <v>2779161407.269353</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0942947350579728</v>
+        <v>0.1276914295750022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04363243943816534</v>
+        <v>0.0436609934856941</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2714609528.840206</v>
+        <v>2098302812.624836</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1535480817742485</v>
+        <v>0.1985265723656484</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0220763869992109</v>
+        <v>0.01853411823279027</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1449280743.017625</v>
+        <v>1915169279.407658</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07273623520307487</v>
+        <v>0.08571088119327662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.034381618060334</v>
+        <v>0.02592347434514981</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2361856916.488288</v>
+        <v>2086763660.417941</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1200522161089246</v>
+        <v>0.1890957584487397</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03458301183996345</v>
+        <v>0.04570183948524362</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5449905888.004099</v>
+        <v>5067170739.79439</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1493947834565</v>
+        <v>0.1156588176661275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05823179859487186</v>
+        <v>0.04487518486105298</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3181883252.830796</v>
+        <v>4003618634.291186</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1628510887558741</v>
+        <v>0.1987817739585951</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04430321000206704</v>
+        <v>0.04364574627958054</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3440619638.319763</v>
+        <v>3228286929.821932</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06914762680719512</v>
+        <v>0.1021655574160618</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03821079415358673</v>
+        <v>0.0308060598367573</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1267048026.412018</v>
+        <v>1884819675.571442</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1656490290391931</v>
+        <v>0.1563606192388323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03535617498311162</v>
+        <v>0.03647003036282189</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4166027375.979845</v>
+        <v>2947014029.995933</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1612513523937274</v>
+        <v>0.1543856687687744</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03614876051503964</v>
+        <v>0.0522600270257176</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1542316480.062165</v>
+        <v>997945860.0840262</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1218667173733101</v>
+        <v>0.1617067729428292</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04814375734077839</v>
+        <v>0.04630403370204213</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3433406159.441739</v>
+        <v>3726731796.90916</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1147864288946573</v>
+        <v>0.0838827660798486</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05948223904249708</v>
+        <v>0.05151765929467186</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3571866856.067642</v>
+        <v>3535946749.744473</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1486829288925278</v>
+        <v>0.1647552370141978</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03032575833532391</v>
+        <v>0.02419262800311933</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3048196811.159322</v>
+        <v>4978230795.447556</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1416685557079641</v>
+        <v>0.1458455129282609</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056692972337324</v>
+        <v>0.04974221024660311</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4653913325.865953</v>
+        <v>3375281377.162782</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1874062285083715</v>
+        <v>0.1789222665521102</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02776100731795898</v>
+        <v>0.02043170415139878</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1350277763.31918</v>
+        <v>1362080250.657868</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1578279139093387</v>
+        <v>0.1047549689282265</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0373564370570247</v>
+        <v>0.05398319120967324</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3230449246.289904</v>
+        <v>2798396865.048337</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1578844604022249</v>
+        <v>0.1633326943232483</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02568278437772049</v>
+        <v>0.02498406524221707</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1411955336.622094</v>
+        <v>1213838766.457324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15975413944734</v>
+        <v>0.1265377183878107</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03810969079588136</v>
+        <v>0.03076393237557061</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4384036694.789389</v>
+        <v>3303842105.766784</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1180141819054486</v>
+        <v>0.08681216553418027</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03894083784100816</v>
+        <v>0.04203311471949838</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2528849161.737717</v>
+        <v>2985501981.403251</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1897477569461398</v>
+        <v>0.1621687799367566</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02176655538612077</v>
+        <v>0.02924271898973425</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2897908661.326808</v>
+        <v>2602524298.195281</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1119403455199065</v>
+        <v>0.1455742642795584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02662643653021783</v>
+        <v>0.02643158555616996</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1965466124.086234</v>
+        <v>1524144754.396528</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1902389151275203</v>
+        <v>0.1611167086810472</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03664594922940821</v>
+        <v>0.03066265998405984</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3465076417.274246</v>
+        <v>5142322549.179007</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07933472600111749</v>
+        <v>0.09328506861033008</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04200028994468735</v>
+        <v>0.03310491903657549</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3798759037.045501</v>
+        <v>3416843745.428797</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1863627745653118</v>
+        <v>0.1723494602240558</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03399335640390973</v>
+        <v>0.02197904454380884</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4113672155.876657</v>
+        <v>4836823985.434293</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1276059974357081</v>
+        <v>0.1296682016433157</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0319746110475014</v>
+        <v>0.03068010762585739</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4597243986.756861</v>
+        <v>4749270909.114706</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1572556895422065</v>
+        <v>0.1399633788137616</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04556132705314524</v>
+        <v>0.03660102517792294</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2460077477.640366</v>
+        <v>2998805047.015358</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09577670933166636</v>
+        <v>0.1011785422874226</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04127687665836599</v>
+        <v>0.0359302724556677</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5382681097.906713</v>
+        <v>4851165970.104647</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1557535140251453</v>
+        <v>0.1246809351126598</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03653895493939054</v>
+        <v>0.03327997069956812</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2472052030.81895</v>
+        <v>1833984172.705807</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1515237079076205</v>
+        <v>0.1245629080001471</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04105097366621332</v>
+        <v>0.0366779462675374</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2896522413.606472</v>
+        <v>2351914266.678104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08917213364472996</v>
+        <v>0.0987794100410009</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0365176525044539</v>
+        <v>0.04379252307897374</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4559549254.983731</v>
+        <v>5434403741.507463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1160445444816674</v>
+        <v>0.1787916303572977</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02540131306783388</v>
+        <v>0.02459408796403469</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1766643907.119934</v>
+        <v>2192682289.466352</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09555812450428577</v>
+        <v>0.09121329521786592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04320827199670414</v>
+        <v>0.03952370084803633</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3482970740.100857</v>
+        <v>3105306120.766737</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1006142740270716</v>
+        <v>0.104362834855306</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04678908710636016</v>
+        <v>0.04155446690365582</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3792299074.429751</v>
+        <v>3932654967.555813</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1357638939511893</v>
+        <v>0.1117810843613317</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02968760942894058</v>
+        <v>0.02731749039173982</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1988941918.727028</v>
+        <v>1584369181.170379</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1022257626327436</v>
+        <v>0.1168058109916872</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03061773347632583</v>
+        <v>0.037108197170504</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3330242512.71964</v>
+        <v>4410698651.421407</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07825348760412626</v>
+        <v>0.1143695627133668</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02217105153631582</v>
+        <v>0.02341391240088677</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1821042853.763862</v>
+        <v>1734315539.025252</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1385522919268767</v>
+        <v>0.1780966886253782</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02056483644696658</v>
+        <v>0.02911189380977532</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3324150239.09874</v>
+        <v>3678102737.050162</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09751621422981943</v>
+        <v>0.102562102671875</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04324852157668443</v>
+        <v>0.04625018260672459</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1783715772.118975</v>
+        <v>1419604308.798378</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1626907121680911</v>
+        <v>0.1486154679788274</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03963220889220084</v>
+        <v>0.03008416417209125</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3933480933.582736</v>
+        <v>3980697865.887329</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07072199736068129</v>
+        <v>0.07297829615532442</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03779055147233713</v>
+        <v>0.03204118565273471</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4441016912.43603</v>
+        <v>4133646599.545921</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1115068759401285</v>
+        <v>0.09301761956159237</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02500672005925678</v>
+        <v>0.02165086066904811</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4828425959.789416</v>
+        <v>5462251492.055357</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1468804068455469</v>
+        <v>0.1899002304175743</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02037532655338331</v>
+        <v>0.02103336081252909</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2154129167.754778</v>
+        <v>1628810224.962566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09776763117292207</v>
+        <v>0.1284280019413345</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02771055090945488</v>
+        <v>0.04390305012568971</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2521579928.291833</v>
+        <v>1766882296.667541</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1025873990712828</v>
+        <v>0.07874484900710019</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05092610050930169</v>
+        <v>0.04209547896598078</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2768812220.188719</v>
+        <v>2747064289.848526</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1112850400847676</v>
+        <v>0.1758212928375619</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05146938034565475</v>
+        <v>0.04619053111728518</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1798230070.20016</v>
+        <v>1926342106.712867</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1507714100420904</v>
+        <v>0.1585447342818155</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01674925041767558</v>
+        <v>0.02566493760722903</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1131007590.408323</v>
+        <v>1444488961.802999</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1344638093798093</v>
+        <v>0.1165681802020124</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02779834378825918</v>
+        <v>0.02741027444798732</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2259783169.934208</v>
+        <v>2826293343.773688</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1390600008770765</v>
+        <v>0.1660068113385431</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02581134799280148</v>
+        <v>0.03791124253433591</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2551688972.816757</v>
+        <v>2201583006.159388</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1357828963371631</v>
+        <v>0.1207335806009417</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03586579593110743</v>
+        <v>0.03412623519250671</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1940419605.226114</v>
+        <v>1589735832.765706</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1150264435458919</v>
+        <v>0.08335228329949902</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05001183388033367</v>
+        <v>0.05110887563017982</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1681681357.924628</v>
+        <v>1858123737.430927</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1849192328562612</v>
+        <v>0.1866267792430276</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04411015824949708</v>
+        <v>0.04699065181220041</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2568625488.660188</v>
+        <v>2679468138.540936</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09741356492112513</v>
+        <v>0.09206023063462188</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03267687652647985</v>
+        <v>0.03768717137790758</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4371213026.333002</v>
+        <v>5026945830.496601</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1161738141682682</v>
+        <v>0.1351436803716446</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05103935369254074</v>
+        <v>0.04154188059014535</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1564090291.546419</v>
+        <v>1674227219.550667</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1115783708264666</v>
+        <v>0.1221847386503506</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03114005745242007</v>
+        <v>0.03137155884033679</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2748119484.705468</v>
+        <v>3081087786.524239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1086849587188718</v>
+        <v>0.1271502304017609</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0406148907362241</v>
+        <v>0.03257792797775431</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2144662440.477796</v>
+        <v>1801183112.939055</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1043640854047926</v>
+        <v>0.1348451882367903</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02972719741508332</v>
+        <v>0.03208485487650242</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3592181088.83255</v>
+        <v>3574698381.458471</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1229004533079215</v>
+        <v>0.167328427556576</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0275134808291923</v>
+        <v>0.02077243248168951</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3236928578.511182</v>
+        <v>3616329906.140889</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08326893641053928</v>
+        <v>0.120792130621561</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02684363144603202</v>
+        <v>0.02541509500626258</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3117414345.131834</v>
+        <v>3439985222.559648</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1248875013006671</v>
+        <v>0.1142681696175607</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02913398340404578</v>
+        <v>0.02861908170848941</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4066523616.566207</v>
+        <v>4175371960.32193</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1498255198854804</v>
+        <v>0.16771594624263</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02233796252146373</v>
+        <v>0.02324217756620284</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2575453083.886924</v>
+        <v>2621118545.897158</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2068946565401073</v>
+        <v>0.2109931385491315</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04190948895860336</v>
+        <v>0.04200564808959313</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2012864864.88128</v>
+        <v>2009645719.651533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1017008913364756</v>
+        <v>0.08878064565920125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03957171806859486</v>
+        <v>0.03283522583066938</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2412968693.879002</v>
+        <v>2480075078.317522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1401440307653015</v>
+        <v>0.1137924880640499</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04573035937649493</v>
+        <v>0.03213497213044689</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3274254114.418402</v>
+        <v>3681806931.905169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.101880231199582</v>
+        <v>0.1524608234349716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02526024042867385</v>
+        <v>0.02394360557379279</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2724870382.226528</v>
+        <v>3887697972.336082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09829359415858725</v>
+        <v>0.09740987788950066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.042030906321146</v>
+        <v>0.03847654796809915</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>224.5325759087389</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2599420071.761703</v>
+        <v>2692748675.959929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.116526482297785</v>
+        <v>0.09329613818609746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04716616553719722</v>
+        <v>0.04585076449128469</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3135885231.497763</v>
+        <v>2988314238.782008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09991947303562064</v>
+        <v>0.07533639478655625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04635308426174323</v>
+        <v>0.03114323354452527</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3534113673.859316</v>
+        <v>3643780908.316696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164352691134644</v>
+        <v>0.1384021525083658</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03345398125619897</v>
+        <v>0.03283376362175451</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1924999925.546762</v>
+        <v>1918544677.238398</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1667785483950571</v>
+        <v>0.1458755443339319</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02308143712254705</v>
+        <v>0.02971955583273929</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3959079223.486644</v>
+        <v>5873729270.78043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1428607447200623</v>
+        <v>0.1356399450567614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05311004172781975</v>
+        <v>0.04174292506934717</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1371241759489</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3860699243.730217</v>
+        <v>2739827526.557259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1374143657384521</v>
+        <v>0.1717193045122489</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0400850093452696</v>
+        <v>0.0312112852883052</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>129.6302370298261</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2672780993.076348</v>
+        <v>2002488668.940577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1773199834511432</v>
+        <v>0.13619006850203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04059268342055021</v>
+        <v>0.04938257163952078</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3430721653.322013</v>
+        <v>4357910451.817065</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07719748684699906</v>
+        <v>0.08321180267347769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0227453931253955</v>
+        <v>0.0293965526076735</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2540669578.13508</v>
+        <v>2757678463.562677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.173523077980938</v>
+        <v>0.1606536661494999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03196934697351504</v>
+        <v>0.03981931826923401</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1487782815.48017</v>
+        <v>1237806471.495782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08680356115308663</v>
+        <v>0.08995738491429311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03005726735647093</v>
+        <v>0.0329978287783334</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1945704973.826126</v>
+        <v>2141358246.853252</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08218367090392575</v>
+        <v>0.07933373873095988</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04153840989016393</v>
+        <v>0.03253513015078704</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4420928283.36466</v>
+        <v>4226003680.425993</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1729988943744552</v>
+        <v>0.1113619660949908</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04595615936718582</v>
+        <v>0.05274985514153344</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.9404174443991</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3191064453.972356</v>
+        <v>2928982527.150811</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1394345806761928</v>
+        <v>0.1650162181886914</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0336255465465803</v>
+        <v>0.02266986774648327</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1356179142.801502</v>
+        <v>1319094117.111268</v>
       </c>
       <c r="F19" t="n">
-        <v>0.186632536150348</v>
+        <v>0.1860661494100778</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02479531991105675</v>
+        <v>0.02587779306185849</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2101773282.096364</v>
+        <v>1995421911.614227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09782809172899787</v>
+        <v>0.1218058790236032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02574811813354702</v>
+        <v>0.0283980789343433</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1665507297.725652</v>
+        <v>2166734406.063404</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07119234728527198</v>
+        <v>0.08123045643684067</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04584440676498192</v>
+        <v>0.02998805586554588</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3373596594.677352</v>
+        <v>3886577732.266502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1300711523400641</v>
+        <v>0.1297848821848442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.037551300785151</v>
+        <v>0.04579837558339495</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543047673.39014</v>
+        <v>1009656649.381399</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1162338865238025</v>
+        <v>0.1403884603266307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03461160696677022</v>
+        <v>0.0446186000664482</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3023102092.677542</v>
+        <v>2801799010.754384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1432736854878978</v>
+        <v>0.1356335688587396</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02504243425625491</v>
+        <v>0.02412215094163229</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1314745470.864395</v>
+        <v>1045077735.375206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1039955289180522</v>
+        <v>0.1179806172355252</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02931082088107805</v>
+        <v>0.02047235380349886</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1343200529.491459</v>
+        <v>1383129575.577592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174363907254374</v>
+        <v>0.08269627941234657</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03754443045551475</v>
+        <v>0.02954522827207471</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4104652113.801718</v>
+        <v>4109094862.08685</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1487170364509788</v>
+        <v>0.1176596688799361</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0192674022928931</v>
+        <v>0.02180921205399445</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3369612141.661386</v>
+        <v>3401828780.287663</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1396763854403847</v>
+        <v>0.1212145031190804</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04957028182979909</v>
+        <v>0.04324349590867613</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>181.656088363995</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5248461937.01428</v>
+        <v>4372494185.112293</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1206948008995673</v>
+        <v>0.12256540799844</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03285949450104905</v>
+        <v>0.03243262405936786</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0157001794318</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2082686848.906751</v>
+        <v>1592098906.738014</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1099281678352859</v>
+        <v>0.0999494471149668</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03800949653953647</v>
+        <v>0.03971659692050998</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1476204017.100594</v>
+        <v>1071354173.503789</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08985345570439715</v>
+        <v>0.107236912879279</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04159604605722068</v>
+        <v>0.04188593735617699</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1661467324.588567</v>
+        <v>1381752910.923223</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1007486106964786</v>
+        <v>0.1111016260787473</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03157109513392715</v>
+        <v>0.02949595783793777</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2297184944.66547</v>
+        <v>2435214243.079319</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1648421166463824</v>
+        <v>0.1992075632434848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04368738866046965</v>
+        <v>0.05844517726201547</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1031147246.656919</v>
+        <v>1435927013.407667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1185258966919259</v>
+        <v>0.1210103984160734</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0175598843798656</v>
+        <v>0.01717873031677753</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>992026586.022743</v>
+        <v>1197453438.162341</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08893281190302331</v>
+        <v>0.0805467405431534</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03225271338052403</v>
+        <v>0.04165790091529031</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3255477688.687076</v>
+        <v>2003486514.452662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1192469598607609</v>
+        <v>0.1491928757605638</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02495452960556816</v>
+        <v>0.01769501975212779</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2063884832.836406</v>
+        <v>1781427577.204643</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1083762271116017</v>
+        <v>0.1050530165720894</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02881232324570039</v>
+        <v>0.03358176036883331</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1894791932.982044</v>
+        <v>2033999952.479145</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08508010103710155</v>
+        <v>0.1162318570524837</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03391377138936859</v>
+        <v>0.02667268153181133</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2023935767.566461</v>
+        <v>1652999382.913156</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1735806826241355</v>
+        <v>0.1852072353411453</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0282595206885587</v>
+        <v>0.02069970854768652</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1444935790.59164</v>
+        <v>1290848578.18917</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1143491801436445</v>
+        <v>0.1123026158320348</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04380592518016319</v>
+        <v>0.05576035834019093</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1868615414.476767</v>
+        <v>2832994093.670657</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1402588823152905</v>
+        <v>0.1105569127990788</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04408868074076607</v>
+        <v>0.03062526861316105</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2779161407.269353</v>
+        <v>3375808277.935719</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1276914295750022</v>
+        <v>0.07950218766719752</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0436609934856941</v>
+        <v>0.0373270891713277</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="n">
+        <v>179.322286448815</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2098302812.624836</v>
+        <v>2200139229.216964</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1985265723656484</v>
+        <v>0.130163445151798</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01853411823279027</v>
+        <v>0.01728194649345495</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1915169279.407658</v>
+        <v>1716764232.195181</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08571088119327662</v>
+        <v>0.08675043275508545</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02592347434514981</v>
+        <v>0.0272616470226199</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2086763660.417941</v>
+        <v>1704236768.139716</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1890957584487397</v>
+        <v>0.1859920259816535</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04570183948524362</v>
+        <v>0.04141723510099154</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5067170739.79439</v>
+        <v>3656007351.031586</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1156588176661275</v>
+        <v>0.159869108856355</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04487518486105298</v>
+        <v>0.04263316208285731</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.2705222114025</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4003618634.291186</v>
+        <v>5143240118.912745</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1987817739585951</v>
+        <v>0.1757912045765945</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04364574627958054</v>
+        <v>0.05311205252538542</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3228286929.821932</v>
+        <v>3250611636.588974</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021655574160618</v>
+        <v>0.07824653297766192</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0308060598367573</v>
+        <v>0.0239079678836774</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>10</v>
+      </c>
+      <c r="K48" t="n">
+        <v>166.4550778765736</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1884819675.571442</v>
+        <v>1540441159.575581</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1563606192388323</v>
+        <v>0.1629647891100246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03647003036282189</v>
+        <v>0.04466277126860366</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2947014029.995933</v>
+        <v>2605747392.0207</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1543856687687744</v>
+        <v>0.1772057214015276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0522600270257176</v>
+        <v>0.04331261821984123</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>997945860.0840262</v>
+        <v>1214387574.075197</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1617067729428292</v>
+        <v>0.1337371733938326</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04630403370204213</v>
+        <v>0.0449850127327321</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3726731796.90916</v>
+        <v>4351937491.631615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0838827660798486</v>
+        <v>0.0876217600931606</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05151765929467186</v>
+        <v>0.05489991152943661</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3535946749.744473</v>
+        <v>2414839403.222113</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1647552370141978</v>
+        <v>0.2016882872169806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02419262800311933</v>
+        <v>0.02882399862713773</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="n">
+        <v>85.98872848924785</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4978230795.447556</v>
+        <v>3516667080.640235</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1458455129282609</v>
+        <v>0.1551822896010051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04974221024660311</v>
+        <v>0.03837215350257384</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K54" t="n">
+        <v>194.6974369120265</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3375281377.162782</v>
+        <v>4559646514.552746</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1789222665521102</v>
+        <v>0.1940034877334074</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02043170415139878</v>
+        <v>0.02949805064975048</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.7547748948066</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1362080250.657868</v>
+        <v>1325982372.692812</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1047549689282265</v>
+        <v>0.1099039768204287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05398319120967324</v>
+        <v>0.05090997738021644</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2798396865.048337</v>
+        <v>3499530470.399247</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1633326943232483</v>
+        <v>0.1175153051167931</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02498406524221707</v>
+        <v>0.02281885643653064</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1213838766.457324</v>
+        <v>1591556993.556731</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1265377183878107</v>
+        <v>0.1686187522590105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03076393237557061</v>
+        <v>0.02572270240283714</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3303842105.766784</v>
+        <v>3512667473.621509</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08681216553418027</v>
+        <v>0.1187892064037572</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04203311471949838</v>
+        <v>0.04820538084454536</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2985501981.403251</v>
+        <v>2427250716.588597</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1621687799367566</v>
+        <v>0.1982071867312522</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02924271898973425</v>
+        <v>0.02112098614576356</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
+        <v>88.6270539292866</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2602524298.195281</v>
+        <v>2585784977.027594</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1455742642795584</v>
+        <v>0.1420005972426955</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02643158555616996</v>
+        <v>0.03094252975697367</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1524144754.396528</v>
+        <v>2024065208.014239</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1611167086810472</v>
+        <v>0.1925366868195979</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03066265998405984</v>
+        <v>0.03260150283958813</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5142322549.179007</v>
+        <v>4989081186.076609</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09328506861033008</v>
+        <v>0.07007388170308684</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03310491903657549</v>
+        <v>0.04290205604736428</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3416843745.428797</v>
+        <v>4427262464.781457</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1723494602240558</v>
+        <v>0.1323108853675929</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02197904454380884</v>
+        <v>0.02570287341308165</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4836823985.434293</v>
+        <v>4185629677.690417</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1296682016433157</v>
+        <v>0.1166960406909365</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03068010762585739</v>
+        <v>0.02952830060097585</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5850258271556</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4749270909.114706</v>
+        <v>3548009873.603308</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1399633788137616</v>
+        <v>0.1072389203722563</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03660102517792294</v>
+        <v>0.05115894767771689</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2998805047.015358</v>
+        <v>2402952426.832625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1011785422874226</v>
+        <v>0.06575401272327587</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0359302724556677</v>
+        <v>0.03919563939830809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4851165970.104647</v>
+        <v>5310533160.90162</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1246809351126598</v>
+        <v>0.1515775769026977</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03327997069956812</v>
+        <v>0.04948637499432178</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1833984172.705807</v>
+        <v>2104556555.70572</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1245629080001471</v>
+        <v>0.1238895339484229</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0366779462675374</v>
+        <v>0.0539314504153993</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2351914266.678104</v>
+        <v>3060720926.121825</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0987794100410009</v>
+        <v>0.06949812232784146</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04379252307897374</v>
+        <v>0.04446179635847625</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5434403741.507463</v>
+        <v>4120527027.229142</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1787916303572977</v>
+        <v>0.1239757826083873</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02459408796403469</v>
+        <v>0.03374249973282761</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>11</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6318487566197</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2192682289.466352</v>
+        <v>1429551149.03244</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09121329521786592</v>
+        <v>0.08841622394110003</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03952370084803633</v>
+        <v>0.04134482214205675</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3105306120.766737</v>
+        <v>3514257571.866623</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104362834855306</v>
+        <v>0.09578087274543608</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04155446690365582</v>
+        <v>0.04388151181278575</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3932654967.555813</v>
+        <v>2814864122.60818</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1117810843613317</v>
+        <v>0.1562265175715126</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02731749039173982</v>
+        <v>0.02503395955847007</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1584369181.170379</v>
+        <v>2087575669.164572</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1168058109916872</v>
+        <v>0.157451928727869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.037108197170504</v>
+        <v>0.02741861874691764</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4410698651.421407</v>
+        <v>3877753876.454525</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1143695627133668</v>
+        <v>0.103880047106274</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02341391240088677</v>
+        <v>0.02107953668757459</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>11</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1734315539.025252</v>
+        <v>1440824138.479854</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1780966886253782</v>
+        <v>0.1511471709182878</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02911189380977532</v>
+        <v>0.02633250136338776</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3678102737.050162</v>
+        <v>2937232451.281985</v>
       </c>
       <c r="F78" t="n">
-        <v>0.102562102671875</v>
+        <v>0.1202246600440051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04625018260672459</v>
+        <v>0.0495823565431442</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10</v>
+      </c>
+      <c r="K78" t="n">
+        <v>138.0943325406378</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1419604308.798378</v>
+        <v>1368797989.031819</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1486154679788274</v>
+        <v>0.1208457020859168</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03008416417209125</v>
+        <v>0.03423218142354822</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3980697865.887329</v>
+        <v>5144561241.800286</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07297829615532442</v>
+        <v>0.09129970373846448</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03204118565273471</v>
+        <v>0.03645128312667723</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.7383420981333</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4133646599.545921</v>
+        <v>4844319669.615172</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09301761956159237</v>
+        <v>0.1368375995020693</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02165086066904811</v>
+        <v>0.02525590447505553</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>10</v>
+      </c>
+      <c r="K81" t="n">
+        <v>171.021947440438</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5462251492.055357</v>
+        <v>4070533717.000611</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1899002304175743</v>
+        <v>0.1855117149677057</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02103336081252909</v>
+        <v>0.0269924677288301</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>11</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1628810224.962566</v>
+        <v>2436834201.75498</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1284280019413345</v>
+        <v>0.1189485438047476</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04390305012568971</v>
+        <v>0.03246975508479859</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1766882296.667541</v>
+        <v>1880268179.448857</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07874484900710019</v>
+        <v>0.08798313271995699</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04209547896598078</v>
+        <v>0.0410803441766204</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2747064289.848526</v>
+        <v>2266639034.450252</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1758212928375619</v>
+        <v>0.1228555823389981</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04619053111728518</v>
+        <v>0.05638657689558536</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1926342106.712867</v>
+        <v>1714290348.799917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1585447342818155</v>
+        <v>0.1406608355749884</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02566493760722903</v>
+        <v>0.02598690163537049</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1444488961.802999</v>
+        <v>1441973067.561731</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1165681802020124</v>
+        <v>0.1357293263836992</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02741027444798732</v>
+        <v>0.03920722132476858</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2826293343.773688</v>
+        <v>2936848276.395309</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1660068113385431</v>
+        <v>0.1487930597994241</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791124253433591</v>
+        <v>0.03556374474890517</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2201583006.159388</v>
+        <v>2556462338.243574</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1207335806009417</v>
+        <v>0.1446212467737371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03412623519250671</v>
+        <v>0.03560813283103608</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="n">
+        <v>104.0585611149349</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1589735832.765706</v>
+        <v>2135889110.167922</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08335228329949902</v>
+        <v>0.09534081463514153</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05110887563017982</v>
+        <v>0.03641057720382681</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1858123737.430927</v>
+        <v>1928732854.264851</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1866267792430276</v>
+        <v>0.181274318193126</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04699065181220041</v>
+        <v>0.05923363662771527</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2679468138.540936</v>
+        <v>2073457921.882309</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09206023063462188</v>
+        <v>0.1015272779841629</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03768717137790758</v>
+        <v>0.03699472020524074</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5026945830.496601</v>
+        <v>3349828509.742663</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1351436803716446</v>
+        <v>0.1013873225184291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04154188059014535</v>
+        <v>0.05253838476034598</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1674227219.550667</v>
+        <v>1679580630.608752</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221847386503506</v>
+        <v>0.144017174482717</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03137155884033679</v>
+        <v>0.03893779476258104</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3081087786.524239</v>
+        <v>2273133243.10672</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1271502304017609</v>
+        <v>0.1101039956297072</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03257792797775431</v>
+        <v>0.05115584734474171</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1801183112.939055</v>
+        <v>2185523360.098808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1348451882367903</v>
+        <v>0.1113260552463614</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03208485487650242</v>
+        <v>0.04484107055688675</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3574698381.458471</v>
+        <v>4381304771.579515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.167328427556576</v>
+        <v>0.1312342474639844</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02077243248168951</v>
+        <v>0.02072971344306313</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>10</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5534137309497</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3616329906.140889</v>
+        <v>3357818575.042045</v>
       </c>
       <c r="F98" t="n">
-        <v>0.120792130621561</v>
+        <v>0.1045130982018996</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02541509500626258</v>
+        <v>0.03288558770125143</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3439985222.559648</v>
+        <v>2283898229.896502</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1142681696175607</v>
+        <v>0.1238960505096663</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02861908170848941</v>
+        <v>0.02551696980841913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4175371960.32193</v>
+        <v>3804612060.475923</v>
       </c>
       <c r="F100" t="n">
-        <v>0.16771594624263</v>
+        <v>0.1415528510625417</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02324217756620284</v>
+        <v>0.02072974739236336</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2621118545.897158</v>
+        <v>2356396072.195356</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2109931385491315</v>
+        <v>0.1709361127289006</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04200564808959313</v>
+        <v>0.0571836637173494</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
